--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1933.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1933.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.077717520935341</v>
+        <v>0.3092107474803925</v>
       </c>
       <c r="B1">
-        <v>2.539955017456325</v>
+        <v>0.333082526922226</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.513103485107422</v>
       </c>
       <c r="D1">
-        <v>1.819854113029403</v>
+        <v>2.831963062286377</v>
       </c>
       <c r="E1">
-        <v>1.254671248433626</v>
+        <v>1.282640218734741</v>
       </c>
     </row>
   </sheetData>
